--- a/Documentation/Fuel_Measurement_Variables.xlsx
+++ b/Documentation/Fuel_Measurement_Variables.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b99f4f2e106ab98e/official work/saudi project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\haseeb\liquidMeasuringProject\SmartInverGenHub\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{8AA02758-CCB2-4E83-8CCE-6A5A4EFACA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D33F6D4-B08E-4685-BCF5-204CACFF4E65}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t xml:space="preserve">Energy </t>
   </si>
@@ -282,12 +281,33 @@
   </si>
   <si>
     <t>Sign Frequency for Volts</t>
+  </si>
+  <si>
+    <t>LCD SCREEN</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YESS</t>
+  </si>
+  <si>
+    <t>Achieved Functionality in Device</t>
+  </si>
+  <si>
+    <t>Not related to Device                                Application related</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <t>To be Implemented on application side</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -428,11 +448,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,16 +478,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -476,34 +496,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,13 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,34 +520,106 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,24 +901,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -872,75 +939,99 @@
       <c r="F1" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="G1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="G2" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>255</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="G3" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="12">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="9">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -959,584 +1050,812 @@
       <c r="F6" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7" t="s">
+      <c r="G9" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7" t="s">
+      <c r="G10" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
+      <c r="G11" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7" t="s">
+      <c r="G12" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>4</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7" t="s">
+      <c r="G13" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>4</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
+      <c r="G14" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
+      <c r="G15" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
+      <c r="G16" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>4</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7" t="s">
+      <c r="G17" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>4</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+      <c r="G18" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="34">
+      <c r="C21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="20">
         <v>1</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39" t="s">
+      <c r="F21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="39">
-        <v>8</v>
-      </c>
-      <c r="E22" s="40" t="s">
+      <c r="C22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="23">
+        <v>8</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
-      <c r="B23" s="39" t="s">
+      <c r="F22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="39">
-        <v>8</v>
-      </c>
-      <c r="E23" s="40" t="s">
+      <c r="C23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="C26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="11">
         <v>1</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14" t="s">
+      <c r="F26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="C27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="11">
         <v>1</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14" t="s">
+      <c r="F27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="C28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="11">
         <v>1</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14" t="s">
+      <c r="F28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="C29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="11">
         <v>1</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="20">
+      <c r="C32" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="13">
         <v>1</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19" t="s">
+      <c r="F32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="20">
+      <c r="C33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="21"/>
-      <c r="B34" s="19" t="s">
+      <c r="F33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="20">
+      <c r="C34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="13">
         <v>3</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="19" t="s">
+      <c r="G34" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="20">
+      <c r="C35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="13">
         <v>3</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G35" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="26">
+      <c r="C38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="16">
         <v>1</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="25" t="s">
+      <c r="F38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="26">
+      <c r="C39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="16">
         <v>3</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
-      <c r="B40" s="25" t="s">
+      <c r="F39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="26">
+      <c r="C40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="16">
         <v>3</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="30"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="19">
         <v>4</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="33"/>
-      <c r="B44" s="30" t="s">
+      <c r="F43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="19">
         <v>4</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
-      <c r="B45" s="30" t="s">
+      <c r="F44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="19">
         <v>4</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="35">
-        <v>8</v>
-      </c>
-      <c r="E48" s="34"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D48" s="21">
+        <v>8</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
         <v>55</v>
       </c>
